--- a/src/test/resources/flipkartexcel.xlsx
+++ b/src/test/resources/flipkartexcel.xlsx
@@ -771,390 +771,390 @@
 <sst count="190" uniqueCount="8" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
 <sst count="191" uniqueCount="8" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
 <sst count="192" uniqueCount="8" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="193" uniqueCount="9" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="194" uniqueCount="9" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="195" uniqueCount="9" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="196" uniqueCount="9" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="197" uniqueCount="9" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="198" uniqueCount="9" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="199" uniqueCount="9" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="200" uniqueCount="9" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="201" uniqueCount="9" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="202" uniqueCount="9" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="203" uniqueCount="9" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="204" uniqueCount="9" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="205" uniqueCount="9" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="206" uniqueCount="9" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="207" uniqueCount="9" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="208" uniqueCount="9" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="209" uniqueCount="9" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="210" uniqueCount="9" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="211" uniqueCount="9" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="212" uniqueCount="9" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="213" uniqueCount="9" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="214" uniqueCount="9" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="215" uniqueCount="9" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="216" uniqueCount="9" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="217" uniqueCount="10" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="218" uniqueCount="10" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="219" uniqueCount="10" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="220" uniqueCount="10" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="221" uniqueCount="10" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="222" uniqueCount="10" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="223" uniqueCount="10" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="224" uniqueCount="10" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="225" uniqueCount="10" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="226" uniqueCount="10" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="227" uniqueCount="10" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="228" uniqueCount="10" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="229" uniqueCount="10" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="230" uniqueCount="10" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="231" uniqueCount="10" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="232" uniqueCount="10" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="233" uniqueCount="10" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="234" uniqueCount="10" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="235" uniqueCount="10" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="236" uniqueCount="10" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="237" uniqueCount="10" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="238" uniqueCount="10" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="239" uniqueCount="10" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="240" uniqueCount="10" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="241" uniqueCount="11" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="242" uniqueCount="11" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="243" uniqueCount="11" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="244" uniqueCount="11" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="245" uniqueCount="11" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="246" uniqueCount="11" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="247" uniqueCount="11" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="248" uniqueCount="11" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="249" uniqueCount="11" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="250" uniqueCount="11" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="251" uniqueCount="11" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="252" uniqueCount="11" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="253" uniqueCount="11" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="254" uniqueCount="11" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="255" uniqueCount="11" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="256" uniqueCount="11" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="257" uniqueCount="11" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="258" uniqueCount="11" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="259" uniqueCount="11" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="260" uniqueCount="11" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="261" uniqueCount="11" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="262" uniqueCount="11" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="263" uniqueCount="11" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="264" uniqueCount="11" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="265" uniqueCount="12" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="266" uniqueCount="12" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="267" uniqueCount="12" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="268" uniqueCount="12" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="269" uniqueCount="12" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="270" uniqueCount="12" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="271" uniqueCount="12" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="272" uniqueCount="12" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="273" uniqueCount="12" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="274" uniqueCount="12" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="275" uniqueCount="12" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="276" uniqueCount="12" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="277" uniqueCount="12" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="278" uniqueCount="12" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="279" uniqueCount="12" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="280" uniqueCount="12" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="281" uniqueCount="12" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="282" uniqueCount="12" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="283" uniqueCount="12" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="284" uniqueCount="12" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="285" uniqueCount="12" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="286" uniqueCount="12" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="287" uniqueCount="12" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="288" uniqueCount="12" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="289" uniqueCount="13" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="290" uniqueCount="13" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="291" uniqueCount="13" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="292" uniqueCount="13" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="293" uniqueCount="13" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="294" uniqueCount="13" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="295" uniqueCount="13" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="296" uniqueCount="13" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="297" uniqueCount="13" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="298" uniqueCount="13" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="299" uniqueCount="13" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="300" uniqueCount="13" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="301" uniqueCount="13" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="302" uniqueCount="13" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="303" uniqueCount="13" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="304" uniqueCount="13" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="305" uniqueCount="13" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="306" uniqueCount="13" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="307" uniqueCount="13" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="308" uniqueCount="13" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="309" uniqueCount="13" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="310" uniqueCount="13" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="311" uniqueCount="13" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="312" uniqueCount="13" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="313" uniqueCount="14" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="314" uniqueCount="14" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="315" uniqueCount="14" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="316" uniqueCount="14" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="317" uniqueCount="14" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="318" uniqueCount="14" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="319" uniqueCount="14" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="320" uniqueCount="14" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="321" uniqueCount="14" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="322" uniqueCount="14" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="323" uniqueCount="14" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="324" uniqueCount="14" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="325" uniqueCount="14" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="326" uniqueCount="14" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="327" uniqueCount="14" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="328" uniqueCount="14" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="329" uniqueCount="14" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="330" uniqueCount="14" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="331" uniqueCount="14" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="332" uniqueCount="14" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="333" uniqueCount="14" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="334" uniqueCount="14" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="335" uniqueCount="14" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="336" uniqueCount="14" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="337" uniqueCount="14" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="338" uniqueCount="14" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="339" uniqueCount="14" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="340" uniqueCount="14" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="341" uniqueCount="14" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="342" uniqueCount="14" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="343" uniqueCount="14" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="344" uniqueCount="14" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="345" uniqueCount="14" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="346" uniqueCount="14" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="347" uniqueCount="14" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="348" uniqueCount="14" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="349" uniqueCount="14" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="350" uniqueCount="14" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="351" uniqueCount="14" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="352" uniqueCount="14" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="353" uniqueCount="14" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="354" uniqueCount="14" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="355" uniqueCount="14" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="356" uniqueCount="14" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="357" uniqueCount="14" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="358" uniqueCount="14" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="359" uniqueCount="14" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="360" uniqueCount="14" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="361" uniqueCount="15" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="362" uniqueCount="15" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="363" uniqueCount="15" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="364" uniqueCount="15" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="365" uniqueCount="15" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="366" uniqueCount="15" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="367" uniqueCount="15" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="368" uniqueCount="15" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="369" uniqueCount="15" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="370" uniqueCount="15" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="371" uniqueCount="15" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="372" uniqueCount="15" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="373" uniqueCount="15" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="374" uniqueCount="15" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="375" uniqueCount="15" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="376" uniqueCount="15" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="377" uniqueCount="15" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="378" uniqueCount="15" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="379" uniqueCount="15" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="380" uniqueCount="15" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="381" uniqueCount="15" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="382" uniqueCount="15" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="383" uniqueCount="15" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="384" uniqueCount="15" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="385" uniqueCount="15" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="386" uniqueCount="15" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="387" uniqueCount="15" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="388" uniqueCount="15" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="389" uniqueCount="15" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="390" uniqueCount="15" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="391" uniqueCount="15" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="392" uniqueCount="15" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="393" uniqueCount="15" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="394" uniqueCount="15" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="395" uniqueCount="15" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="396" uniqueCount="15" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="397" uniqueCount="15" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="398" uniqueCount="15" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="399" uniqueCount="15" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="400" uniqueCount="15" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="401" uniqueCount="15" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="402" uniqueCount="15" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="403" uniqueCount="15" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="404" uniqueCount="15" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="405" uniqueCount="15" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="406" uniqueCount="15" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="407" uniqueCount="15" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="408" uniqueCount="15" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="409" uniqueCount="16" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="410" uniqueCount="16" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="411" uniqueCount="16" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="412" uniqueCount="16" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="413" uniqueCount="16" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="414" uniqueCount="16" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="415" uniqueCount="16" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="416" uniqueCount="16" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="417" uniqueCount="16" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="418" uniqueCount="16" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="419" uniqueCount="16" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="420" uniqueCount="16" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="421" uniqueCount="16" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="422" uniqueCount="16" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="423" uniqueCount="16" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="424" uniqueCount="16" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="425" uniqueCount="16" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="426" uniqueCount="16" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="427" uniqueCount="16" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="428" uniqueCount="16" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="429" uniqueCount="16" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="430" uniqueCount="16" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="431" uniqueCount="16" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="432" uniqueCount="16" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="433" uniqueCount="17" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="434" uniqueCount="17" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="435" uniqueCount="17" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="436" uniqueCount="17" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="437" uniqueCount="17" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="438" uniqueCount="17" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="439" uniqueCount="17" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="440" uniqueCount="17" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="441" uniqueCount="17" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="442" uniqueCount="17" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="443" uniqueCount="17" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="444" uniqueCount="17" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="445" uniqueCount="17" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="446" uniqueCount="17" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="447" uniqueCount="17" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="448" uniqueCount="17" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="449" uniqueCount="17" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="450" uniqueCount="17" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="451" uniqueCount="17" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="452" uniqueCount="17" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="453" uniqueCount="17" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="454" uniqueCount="17" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="455" uniqueCount="17" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="456" uniqueCount="17" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="457" uniqueCount="18" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="458" uniqueCount="18" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="459" uniqueCount="18" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="460" uniqueCount="18" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="461" uniqueCount="18" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="462" uniqueCount="18" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="463" uniqueCount="18" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="464" uniqueCount="18" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="465" uniqueCount="18" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="466" uniqueCount="18" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="467" uniqueCount="18" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="468" uniqueCount="18" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="469" uniqueCount="18" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="470" uniqueCount="18" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="471" uniqueCount="18" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="472" uniqueCount="18" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="473" uniqueCount="18" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="474" uniqueCount="18" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="475" uniqueCount="18" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="476" uniqueCount="18" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="477" uniqueCount="18" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="478" uniqueCount="18" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="479" uniqueCount="18" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="480" uniqueCount="18" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="481" uniqueCount="19" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="482" uniqueCount="19" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="483" uniqueCount="19" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="484" uniqueCount="19" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="485" uniqueCount="19" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="486" uniqueCount="19" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="487" uniqueCount="19" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="488" uniqueCount="19" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="489" uniqueCount="19" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="490" uniqueCount="19" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="491" uniqueCount="19" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="492" uniqueCount="19" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="493" uniqueCount="19" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="494" uniqueCount="19" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="495" uniqueCount="19" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="496" uniqueCount="19" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="497" uniqueCount="19" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="498" uniqueCount="19" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="499" uniqueCount="19" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="500" uniqueCount="19" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="501" uniqueCount="19" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="502" uniqueCount="19" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="503" uniqueCount="19" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="504" uniqueCount="19" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="505" uniqueCount="20" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="506" uniqueCount="20" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="507" uniqueCount="20" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="508" uniqueCount="20" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="509" uniqueCount="20" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="510" uniqueCount="20" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="511" uniqueCount="20" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="512" uniqueCount="20" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="513" uniqueCount="20" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="514" uniqueCount="20" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="515" uniqueCount="20" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="516" uniqueCount="20" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="517" uniqueCount="20" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="518" uniqueCount="20" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="519" uniqueCount="20" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="520" uniqueCount="20" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="521" uniqueCount="20" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="522" uniqueCount="20" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="523" uniqueCount="20" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="524" uniqueCount="20" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="525" uniqueCount="20" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="526" uniqueCount="20" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="527" uniqueCount="20" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="528" uniqueCount="20" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="529" uniqueCount="21" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="530" uniqueCount="21" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="531" uniqueCount="21" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="532" uniqueCount="21" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="533" uniqueCount="21" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="534" uniqueCount="21" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="535" uniqueCount="21" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="536" uniqueCount="21" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="537" uniqueCount="21" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="538" uniqueCount="21" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="539" uniqueCount="21" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="540" uniqueCount="21" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="541" uniqueCount="21" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="542" uniqueCount="21" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="543" uniqueCount="21" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="544" uniqueCount="21" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="545" uniqueCount="21" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="546" uniqueCount="21" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="547" uniqueCount="21" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="548" uniqueCount="21" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="549" uniqueCount="21" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="550" uniqueCount="21" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="551" uniqueCount="21" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="552" uniqueCount="21" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="553" uniqueCount="22" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50i (Mint Green, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="554" uniqueCount="22" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50i (Mint Green, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="555" uniqueCount="22" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50i (Mint Green, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="556" uniqueCount="22" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50i (Mint Green, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="557" uniqueCount="22" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50i (Mint Green, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="558" uniqueCount="22" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50i (Mint Green, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="559" uniqueCount="22" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50i (Mint Green, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="560" uniqueCount="22" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50i (Mint Green, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="561" uniqueCount="22" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50i (Mint Green, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="562" uniqueCount="22" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50i (Mint Green, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="563" uniqueCount="22" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50i (Mint Green, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="564" uniqueCount="22" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50i (Mint Green, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="565" uniqueCount="22" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50i (Mint Green, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="566" uniqueCount="22" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50i (Mint Green, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="567" uniqueCount="22" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50i (Mint Green, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="568" uniqueCount="22" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50i (Mint Green, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="569" uniqueCount="22" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50i (Mint Green, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="570" uniqueCount="22" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50i (Mint Green, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="571" uniqueCount="22" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50i (Mint Green, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="572" uniqueCount="22" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50i (Mint Green, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="573" uniqueCount="22" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50i (Mint Green, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="574" uniqueCount="22" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50i (Mint Green, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="575" uniqueCount="22" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50i (Mint Green, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
-<sst count="576" uniqueCount="22" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50i (Mint Green, 32 GB)</t></si></sst>
+<sst count="193" uniqueCount="9" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="194" uniqueCount="9" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="195" uniqueCount="9" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="196" uniqueCount="9" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="197" uniqueCount="9" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="198" uniqueCount="9" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="199" uniqueCount="9" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="200" uniqueCount="9" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="201" uniqueCount="9" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="202" uniqueCount="9" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="203" uniqueCount="9" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="204" uniqueCount="9" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="205" uniqueCount="9" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="206" uniqueCount="9" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="207" uniqueCount="9" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="208" uniqueCount="9" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="209" uniqueCount="9" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="210" uniqueCount="9" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="211" uniqueCount="9" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="212" uniqueCount="9" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="213" uniqueCount="9" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="214" uniqueCount="9" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="215" uniqueCount="9" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="216" uniqueCount="9" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="217" uniqueCount="10" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="218" uniqueCount="10" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="219" uniqueCount="10" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="220" uniqueCount="10" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="221" uniqueCount="10" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="222" uniqueCount="10" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="223" uniqueCount="10" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="224" uniqueCount="10" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="225" uniqueCount="10" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="226" uniqueCount="10" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="227" uniqueCount="10" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="228" uniqueCount="10" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="229" uniqueCount="10" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="230" uniqueCount="10" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="231" uniqueCount="10" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="232" uniqueCount="10" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="233" uniqueCount="10" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="234" uniqueCount="10" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="235" uniqueCount="10" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="236" uniqueCount="10" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="237" uniqueCount="10" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="238" uniqueCount="10" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="239" uniqueCount="10" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="240" uniqueCount="10" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="241" uniqueCount="11" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="242" uniqueCount="11" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="243" uniqueCount="11" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="244" uniqueCount="11" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="245" uniqueCount="11" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="246" uniqueCount="11" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="247" uniqueCount="11" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="248" uniqueCount="11" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="249" uniqueCount="11" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="250" uniqueCount="11" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="251" uniqueCount="11" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="252" uniqueCount="11" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="253" uniqueCount="11" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="254" uniqueCount="11" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="255" uniqueCount="11" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="256" uniqueCount="11" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="257" uniqueCount="11" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="258" uniqueCount="11" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="259" uniqueCount="11" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="260" uniqueCount="11" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="261" uniqueCount="11" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="262" uniqueCount="11" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="263" uniqueCount="11" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="264" uniqueCount="11" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="265" uniqueCount="12" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="266" uniqueCount="12" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="267" uniqueCount="12" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="268" uniqueCount="12" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="269" uniqueCount="12" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="270" uniqueCount="12" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="271" uniqueCount="12" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="272" uniqueCount="12" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="273" uniqueCount="12" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="274" uniqueCount="12" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="275" uniqueCount="12" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="276" uniqueCount="12" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="277" uniqueCount="12" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="278" uniqueCount="12" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="279" uniqueCount="12" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="280" uniqueCount="12" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="281" uniqueCount="12" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="282" uniqueCount="12" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="283" uniqueCount="12" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="284" uniqueCount="12" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="285" uniqueCount="12" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="286" uniqueCount="12" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="287" uniqueCount="12" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="288" uniqueCount="12" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="289" uniqueCount="13" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="290" uniqueCount="13" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="291" uniqueCount="13" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="292" uniqueCount="13" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="293" uniqueCount="13" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="294" uniqueCount="13" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="295" uniqueCount="13" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="296" uniqueCount="13" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="297" uniqueCount="13" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="298" uniqueCount="13" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="299" uniqueCount="13" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="300" uniqueCount="13" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="301" uniqueCount="13" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="302" uniqueCount="13" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="303" uniqueCount="13" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="304" uniqueCount="13" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="305" uniqueCount="13" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="306" uniqueCount="13" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="307" uniqueCount="13" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="308" uniqueCount="13" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="309" uniqueCount="13" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="310" uniqueCount="13" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="311" uniqueCount="13" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="312" uniqueCount="13" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="313" uniqueCount="14" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="314" uniqueCount="14" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="315" uniqueCount="14" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="316" uniqueCount="14" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="317" uniqueCount="14" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="318" uniqueCount="14" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="319" uniqueCount="14" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="320" uniqueCount="14" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="321" uniqueCount="14" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="322" uniqueCount="14" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="323" uniqueCount="14" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="324" uniqueCount="14" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="325" uniqueCount="14" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="326" uniqueCount="14" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="327" uniqueCount="14" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="328" uniqueCount="14" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="329" uniqueCount="14" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="330" uniqueCount="14" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="331" uniqueCount="14" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="332" uniqueCount="14" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="333" uniqueCount="14" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="334" uniqueCount="14" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="335" uniqueCount="14" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="336" uniqueCount="14" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="337" uniqueCount="14" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="338" uniqueCount="14" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="339" uniqueCount="14" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="340" uniqueCount="14" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="341" uniqueCount="14" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="342" uniqueCount="14" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="343" uniqueCount="14" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="344" uniqueCount="14" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="345" uniqueCount="14" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="346" uniqueCount="14" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="347" uniqueCount="14" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="348" uniqueCount="14" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="349" uniqueCount="14" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="350" uniqueCount="14" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="351" uniqueCount="14" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="352" uniqueCount="14" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="353" uniqueCount="14" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="354" uniqueCount="14" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="355" uniqueCount="14" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="356" uniqueCount="14" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="357" uniqueCount="14" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="358" uniqueCount="14" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="359" uniqueCount="14" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="360" uniqueCount="14" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="361" uniqueCount="15" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="362" uniqueCount="15" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="363" uniqueCount="15" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="364" uniqueCount="15" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="365" uniqueCount="15" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="366" uniqueCount="15" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="367" uniqueCount="15" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="368" uniqueCount="15" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="369" uniqueCount="15" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="370" uniqueCount="15" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="371" uniqueCount="15" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="372" uniqueCount="15" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="373" uniqueCount="15" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="374" uniqueCount="15" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="375" uniqueCount="15" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="376" uniqueCount="15" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="377" uniqueCount="15" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="378" uniqueCount="15" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="379" uniqueCount="15" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="380" uniqueCount="15" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="381" uniqueCount="15" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="382" uniqueCount="15" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="383" uniqueCount="15" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="384" uniqueCount="15" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="385" uniqueCount="15" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="386" uniqueCount="15" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="387" uniqueCount="15" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="388" uniqueCount="15" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="389" uniqueCount="15" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="390" uniqueCount="15" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="391" uniqueCount="15" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="392" uniqueCount="15" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="393" uniqueCount="15" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="394" uniqueCount="15" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="395" uniqueCount="15" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="396" uniqueCount="15" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="397" uniqueCount="15" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="398" uniqueCount="15" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="399" uniqueCount="15" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="400" uniqueCount="15" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="401" uniqueCount="15" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="402" uniqueCount="15" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="403" uniqueCount="15" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="404" uniqueCount="15" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="405" uniqueCount="15" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="406" uniqueCount="15" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="407" uniqueCount="15" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="408" uniqueCount="15" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="409" uniqueCount="16" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="410" uniqueCount="16" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="411" uniqueCount="16" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="412" uniqueCount="16" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="413" uniqueCount="16" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="414" uniqueCount="16" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="415" uniqueCount="16" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="416" uniqueCount="16" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="417" uniqueCount="16" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="418" uniqueCount="16" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="419" uniqueCount="16" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="420" uniqueCount="16" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="421" uniqueCount="16" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="422" uniqueCount="16" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="423" uniqueCount="16" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="424" uniqueCount="16" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="425" uniqueCount="16" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="426" uniqueCount="16" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="427" uniqueCount="16" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="428" uniqueCount="16" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="429" uniqueCount="16" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="430" uniqueCount="16" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="431" uniqueCount="16" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="432" uniqueCount="16" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="433" uniqueCount="17" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="434" uniqueCount="17" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="435" uniqueCount="17" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="436" uniqueCount="17" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="437" uniqueCount="17" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="438" uniqueCount="17" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="439" uniqueCount="17" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="440" uniqueCount="17" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="441" uniqueCount="17" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="442" uniqueCount="17" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="443" uniqueCount="17" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="444" uniqueCount="17" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="445" uniqueCount="17" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="446" uniqueCount="17" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="447" uniqueCount="17" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="448" uniqueCount="17" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="449" uniqueCount="17" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="450" uniqueCount="17" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="451" uniqueCount="17" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="452" uniqueCount="17" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="453" uniqueCount="17" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="454" uniqueCount="17" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="455" uniqueCount="17" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="456" uniqueCount="17" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="457" uniqueCount="18" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="458" uniqueCount="18" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="459" uniqueCount="18" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="460" uniqueCount="18" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="461" uniqueCount="18" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="462" uniqueCount="18" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="463" uniqueCount="18" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="464" uniqueCount="18" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="465" uniqueCount="18" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="466" uniqueCount="18" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="467" uniqueCount="18" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="468" uniqueCount="18" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="469" uniqueCount="18" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="470" uniqueCount="18" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="471" uniqueCount="18" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="472" uniqueCount="18" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="473" uniqueCount="18" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="474" uniqueCount="18" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="475" uniqueCount="18" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="476" uniqueCount="18" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="477" uniqueCount="18" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="478" uniqueCount="18" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="479" uniqueCount="18" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="480" uniqueCount="18" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="481" uniqueCount="19" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="482" uniqueCount="19" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="483" uniqueCount="19" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="484" uniqueCount="19" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="485" uniqueCount="19" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="486" uniqueCount="19" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="487" uniqueCount="19" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="488" uniqueCount="19" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="489" uniqueCount="19" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="490" uniqueCount="19" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="491" uniqueCount="19" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="492" uniqueCount="19" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="493" uniqueCount="19" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="494" uniqueCount="19" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="495" uniqueCount="19" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="496" uniqueCount="19" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="497" uniqueCount="19" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="498" uniqueCount="19" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="499" uniqueCount="19" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="500" uniqueCount="19" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="501" uniqueCount="19" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="502" uniqueCount="19" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="503" uniqueCount="19" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="504" uniqueCount="19" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="505" uniqueCount="20" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="506" uniqueCount="20" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="507" uniqueCount="20" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="508" uniqueCount="20" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="509" uniqueCount="20" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="510" uniqueCount="20" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="511" uniqueCount="20" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="512" uniqueCount="20" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="513" uniqueCount="20" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="514" uniqueCount="20" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="515" uniqueCount="20" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="516" uniqueCount="20" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="517" uniqueCount="20" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="518" uniqueCount="20" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="519" uniqueCount="20" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="520" uniqueCount="20" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="521" uniqueCount="20" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="522" uniqueCount="20" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="523" uniqueCount="20" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="524" uniqueCount="20" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="525" uniqueCount="20" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="526" uniqueCount="20" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="527" uniqueCount="20" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="528" uniqueCount="20" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="529" uniqueCount="21" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="530" uniqueCount="21" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="531" uniqueCount="21" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="532" uniqueCount="21" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="533" uniqueCount="21" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="534" uniqueCount="21" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="535" uniqueCount="21" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="536" uniqueCount="21" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="537" uniqueCount="21" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="538" uniqueCount="21" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="539" uniqueCount="21" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="540" uniqueCount="21" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="541" uniqueCount="21" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="542" uniqueCount="21" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="543" uniqueCount="21" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="544" uniqueCount="21" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="545" uniqueCount="21" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="546" uniqueCount="21" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="547" uniqueCount="21" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="548" uniqueCount="21" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="549" uniqueCount="21" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="550" uniqueCount="21" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="551" uniqueCount="21" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="552" uniqueCount="21" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="553" uniqueCount="22" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si><si><t>realme Narzo 50i (Mint Green, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="554" uniqueCount="22" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si><si><t>realme Narzo 50i (Mint Green, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="555" uniqueCount="22" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si><si><t>realme Narzo 50i (Mint Green, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="556" uniqueCount="22" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si><si><t>realme Narzo 50i (Mint Green, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="557" uniqueCount="22" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si><si><t>realme Narzo 50i (Mint Green, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="558" uniqueCount="22" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si><si><t>realme Narzo 50i (Mint Green, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="559" uniqueCount="22" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si><si><t>realme Narzo 50i (Mint Green, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="560" uniqueCount="22" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si><si><t>realme Narzo 50i (Mint Green, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="561" uniqueCount="22" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si><si><t>realme Narzo 50i (Mint Green, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="562" uniqueCount="22" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si><si><t>realme Narzo 50i (Mint Green, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="563" uniqueCount="22" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si><si><t>realme Narzo 50i (Mint Green, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="564" uniqueCount="22" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si><si><t>realme Narzo 50i (Mint Green, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="565" uniqueCount="22" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si><si><t>realme Narzo 50i (Mint Green, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="566" uniqueCount="22" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si><si><t>realme Narzo 50i (Mint Green, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="567" uniqueCount="22" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si><si><t>realme Narzo 50i (Mint Green, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="568" uniqueCount="22" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si><si><t>realme Narzo 50i (Mint Green, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="569" uniqueCount="22" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si><si><t>realme Narzo 50i (Mint Green, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="570" uniqueCount="22" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si><si><t>realme Narzo 50i (Mint Green, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="571" uniqueCount="22" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si><si><t>realme Narzo 50i (Mint Green, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="572" uniqueCount="22" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si><si><t>realme Narzo 50i (Mint Green, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="573" uniqueCount="22" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si><si><t>realme Narzo 50i (Mint Green, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="574" uniqueCount="22" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si><si><t>realme Narzo 50i (Mint Green, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="575" uniqueCount="22" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si><si><t>realme Narzo 50i (Mint Green, 32 GB)</t></si></sst><?xml version="1.0" encoding="UTF-8"?>
+<sst count="576" uniqueCount="22" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><si><t>realme C20 (Cool Blue, 32 GB)</t></si><si><t>realme C20 (Cool Grey, 32 GB)</t></si><si><t>realme 9 5G (Stargaze White, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 64 GB)</t></si><si><t>realme 9 5G (Stargaze White, 64 GB)</t></si><si><t>realme C35 (Glowing Black, 64 GB)</t></si><si><t>realme C35 (Glowing Green, 64 GB)</t></si><si><t>realme 9 (Sunburst Gold, 128 GB)</t></si><si><t>realme 9 5G (Meteor Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 64 GB)</t></si><si><t>realme 9 5G (Supersonic Black, 128 GB)</t></si><si><t>realme 9 5G (Supersonic Blue, 128 GB)</t></si><si><t>realme C35 (Glowing Black, 128 GB)</t></si><si><t>realme 9 (Stargaze White, 128 GB)</t></si><si><t>realme C31 (Light Silver, 32 GB)</t></si><si><t>realme C31 (Dark Green, 32 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Blue, 128 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 64 GB)</t></si><si><t>realme Narzo 50 (Speed Black, 128 GB)</t></si><si><t>realme Narzo 50i (Mint Green, 32 GB)</t></si></sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="UTF-8"?>
